--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_2.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6ED8C6-C957-48CD-A1F1-0554CF2903F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C046A273-2AF5-492F-B977-23BF01606125}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2415" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="2895" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>p1</t>
   </si>
   <si>
-    <t>p1 + x1 + p1 + x2</t>
+    <t>p1 + x1 + p2 * x2</t>
   </si>
 </sst>
 </file>
@@ -270,16 +270,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,25 +315,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,105 +742,105 @@
   <sheetData>
     <row r="3" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="33"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="33"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="34"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="16" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
@@ -849,10 +849,10 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="19">
+      <c r="C19" s="28">
         <v>1</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="24"/>
       <c r="E19">
         <v>6</v>
       </c>
@@ -861,10 +861,10 @@
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="19">
+      <c r="C20" s="28">
         <v>2</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="24"/>
       <c r="E20">
         <v>5</v>
       </c>
@@ -873,10 +873,10 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="19">
+      <c r="C21" s="28">
         <v>3</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="24"/>
       <c r="E21">
         <v>4</v>
       </c>
@@ -885,10 +885,10 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="19">
+      <c r="C22" s="28">
         <v>4</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="24"/>
       <c r="E22">
         <v>3</v>
       </c>
@@ -897,10 +897,10 @@
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="19">
+      <c r="C23" s="28">
         <v>5</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="24"/>
       <c r="E23">
         <v>2</v>
       </c>
@@ -909,10 +909,10 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="21">
+      <c r="C24" s="34">
         <v>6</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="5">
         <v>1</v>
       </c>
@@ -923,18 +923,18 @@
     <row r="26" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
@@ -943,10 +943,10 @@
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="19">
+      <c r="C30" s="28">
         <v>1</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="24"/>
       <c r="E30">
         <v>6</v>
       </c>
@@ -955,10 +955,10 @@
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="19">
+      <c r="C31" s="28">
         <v>2</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="24"/>
       <c r="E31">
         <v>5</v>
       </c>
@@ -967,10 +967,10 @@
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="19">
+      <c r="C32" s="28">
         <v>3</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="24"/>
       <c r="E32">
         <v>4</v>
       </c>
@@ -979,10 +979,10 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="19">
+      <c r="C33" s="28">
         <v>4</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="24"/>
       <c r="E33">
         <v>3</v>
       </c>
@@ -991,10 +991,10 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="19">
+      <c r="C34" s="28">
         <v>5</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="24"/>
       <c r="E34">
         <v>2</v>
       </c>
@@ -1003,10 +1003,10 @@
       </c>
     </row>
     <row r="35" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="21">
+      <c r="C35" s="34">
         <v>6</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="5">
         <v>1</v>
       </c>
@@ -1017,6 +1017,23 @@
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -1027,23 +1044,6 @@
     <mergeCell ref="H6:I9"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1153,15 +1153,15 @@
     </row>
     <row r="16" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="43"/>
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="19">
+      <c r="B19" s="28">
         <v>1</v>
       </c>
       <c r="C19" s="35"/>
